--- a/Experiment_data.xlsx
+++ b/Experiment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sif_wittus/Documents/GitHub/Januar-Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE98498-7349-5443-94BA-46B65671E66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB19F7-EECF-F54F-96EF-A5A01335265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-160" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot_study_3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="256">
   <si>
     <t>Accuracy</t>
   </si>
@@ -801,6 +801,9 @@
   </si>
   <si>
     <t>['+38845', '+34845', '+38845', '+38845', '+38845', '+34845', '+34845', '+38845', '+38845', '+38845']</t>
+  </si>
+  <si>
+    <t>std =</t>
   </si>
 </sst>
 </file>
@@ -1253,7 +1256,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1467,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2034,15 +2037,24 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>255</v>
+      </c>
+      <c r="B53">
+        <f>SQRT(B52)</f>
+        <v>0.25952667067104673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>119</v>
       </c>
-      <c r="B53">
-        <f>B51-1.64*SQRT(B52/18)</f>
-        <v>0.60488785576078841</v>
-      </c>
-      <c r="C53">
-        <f>B51+1.64*SQRT(B52/18)</f>
-        <v>0.80552881090587825</v>
+      <c r="B54">
+        <f>B51-1.64*SQRT(B52/48)</f>
+        <v>0.64377483813206871</v>
+      </c>
+      <c r="C54">
+        <f>B51+1.64*SQRT(B52/48)</f>
+        <v>0.76664182853459795</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
@@ -2265,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C60" sqref="A58:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2898,15 +2910,24 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>255</v>
+      </c>
+      <c r="B59">
+        <f>SQRT(B58)</f>
+        <v>0.18766793085431208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>119</v>
       </c>
-      <c r="B59">
-        <f>B57-1.64*SQRT(B58/18)</f>
-        <v>0.47819738171071929</v>
-      </c>
-      <c r="C59">
-        <f>B57+1.64*SQRT(B58/18)</f>
-        <v>0.62328409977076249</v>
+      <c r="B60">
+        <f>B57-1.64*SQRT(B58/54)</f>
+        <v>0.50885781287683818</v>
+      </c>
+      <c r="C60">
+        <f>B57+1.64*SQRT(B58/54)</f>
+        <v>0.59262366860464355</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment_data.xlsx
+++ b/Experiment_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sif_wittus/Documents/GitHub/Januar-Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EB19F7-EECF-F54F-96EF-A5A01335265F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5378106-7F3B-4940-B165-CB658A756F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="400" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot_study_3" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="256">
   <si>
     <t>Accuracy</t>
   </si>
@@ -1256,7 +1256,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B19" sqref="A19:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2064,10 +2064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2248,26 +2248,25 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
+        <f>AVERAGE(A2:A16)</f>
+        <v>0.52533333333333321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
         <f>_xlfn.VAR.S(A2:A16)</f>
         <v>4.8426666666666715E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="str">
-        <f ca="1">_xlfn.VAR.S(A2:A19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C28" t="str">
-        <f ca="1">A17-1.64*SQRT(A18/18)</f>
-        <v/>
-      </c>
-      <c r="D28" t="str">
-        <f ca="1">A17+1.64*SQRT(A18/18)</f>
-        <v/>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <f>1.64^2 * (A18 / (0.05^2))</f>
+        <v>52.0993450666667</v>
       </c>
     </row>
   </sheetData>
@@ -2279,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="A58:C60"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Experiment_data.xlsx
+++ b/Experiment_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sif_wittus/Documents/GitHub/Januar-Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5378106-7F3B-4940-B165-CB658A756F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B3C0A9-B26B-184E-98DD-9F6CE30183CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="760" windowWidth="30240" windowHeight="17200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pilot_study_3" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Sample-data</t>
-  </si>
-  <si>
     <t>4+1</t>
   </si>
   <si>
@@ -804,6 +801,9 @@
   </si>
   <si>
     <t>std =</t>
+  </si>
+  <si>
+    <t>Model prediction</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -949,6 +949,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1255,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="A19:B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1272,8 +1275,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>255</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -1282,10 +1285,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1293,10 +1296,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1304,10 +1307,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1315,10 +1318,10 @@
         <v>0.6</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1326,10 +1329,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1337,10 +1340,10 @@
         <v>0.33333333333333343</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1348,10 +1351,10 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1359,10 +1362,10 @@
         <v>0.96666666666666656</v>
       </c>
       <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1370,10 +1373,10 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,10 +1384,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1392,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1403,10 +1406,10 @@
         <v>0.9</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,10 +1417,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1425,10 +1428,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1436,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1456,7 +1459,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <f>1.64^2 * (A18 / (0.05^2))</f>
@@ -1472,11 +1475,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="56.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -1485,8 +1491,8 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1494,10 +1500,10 @@
         <v>0.33333333333333343</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1505,10 +1511,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1516,10 +1522,10 @@
         <v>0.76666666666666672</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1527,10 +1533,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>39</v>
-      </c>
-      <c r="C5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1538,10 +1544,10 @@
         <v>0.96666666666666656</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1549,10 +1555,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1560,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,10 +1577,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
         <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1593,10 +1599,10 @@
         <v>0.70000000000000007</v>
       </c>
       <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
         <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1604,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1615,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1626,10 +1632,10 @@
         <v>0.63333333333333341</v>
       </c>
       <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
         <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1637,10 +1643,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1648,10 +1654,10 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1659,10 +1665,10 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1670,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
         <v>63</v>
-      </c>
-      <c r="C18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1681,10 +1687,10 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
         <v>65</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1692,10 +1698,10 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1703,10 +1709,10 @@
         <v>0.63333333333333341</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1714,10 +1720,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
         <v>70</v>
-      </c>
-      <c r="C22" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,10 +1731,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1736,10 +1742,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1747,10 +1753,10 @@
         <v>1</v>
       </c>
       <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
         <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1758,10 +1764,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1769,10 +1775,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
-      </c>
-      <c r="C27" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1780,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -1791,10 +1797,10 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
         <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -1802,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
         <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1813,10 +1819,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -1824,10 +1830,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1835,10 +1841,10 @@
         <v>0.76666666666666683</v>
       </c>
       <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
         <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -1846,10 +1852,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -1857,10 +1863,10 @@
         <v>0.49999999999999989</v>
       </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
         <v>89</v>
-      </c>
-      <c r="C35" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1868,10 +1874,10 @@
         <v>0.56666666666666665</v>
       </c>
       <c r="B36" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" t="s">
         <v>91</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1879,10 +1885,10 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1890,10 +1896,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" t="s">
         <v>94</v>
-      </c>
-      <c r="C38" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1901,10 +1907,10 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" t="s">
         <v>96</v>
-      </c>
-      <c r="C39" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1912,10 +1918,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -1923,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
         <v>100</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1934,10 +1940,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
         <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -1945,10 +1951,10 @@
         <v>0.4</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -1956,10 +1962,10 @@
         <v>0.4</v>
       </c>
       <c r="B44" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" t="s">
         <v>105</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1967,10 +1973,10 @@
         <v>0.8</v>
       </c>
       <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" t="s">
         <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -1978,10 +1984,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
         <v>109</v>
-      </c>
-      <c r="C46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -1989,10 +1995,10 @@
         <v>0.8</v>
       </c>
       <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s">
         <v>111</v>
-      </c>
-      <c r="C47" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2000,10 +2006,10 @@
         <v>0.66666666666666674</v>
       </c>
       <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
         <v>113</v>
-      </c>
-      <c r="C48" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2011,15 +2017,15 @@
         <v>0.73333333333333328</v>
       </c>
       <c r="B49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
         <v>115</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51">
         <f>AVERAGE(A2:A49)</f>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52">
         <f>_xlfn.VAR.S(A2:A49)</f>
@@ -2037,7 +2043,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B53">
         <f>SQRT(B52)</f>
@@ -2046,7 +2052,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B54">
         <f>B51-1.64*SQRT(B52/48)</f>
@@ -2067,10 +2073,13 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="71" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -2079,8 +2088,8 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2088,10 +2097,10 @@
         <v>0.64</v>
       </c>
       <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" t="s">
         <v>120</v>
-      </c>
-      <c r="C2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2099,10 +2108,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2110,10 +2119,10 @@
         <v>0.77999999999999992</v>
       </c>
       <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2121,10 +2130,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" t="s">
         <v>126</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2132,10 +2141,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2143,10 +2152,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2154,10 +2163,10 @@
         <v>0.42</v>
       </c>
       <c r="B8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2165,10 +2174,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" t="s">
         <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2176,10 +2185,10 @@
         <v>0.41999999999999987</v>
       </c>
       <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
         <v>136</v>
-      </c>
-      <c r="C10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2187,10 +2196,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" t="s">
         <v>138</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2198,10 +2207,10 @@
         <v>0.18</v>
       </c>
       <c r="B12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
         <v>140</v>
-      </c>
-      <c r="C12" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2209,10 +2218,10 @@
         <v>0.2</v>
       </c>
       <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
         <v>142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2220,10 +2229,10 @@
         <v>0.72</v>
       </c>
       <c r="B14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" t="s">
         <v>144</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2231,10 +2240,10 @@
         <v>0.24</v>
       </c>
       <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
         <v>146</v>
-      </c>
-      <c r="C15" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2242,10 +2251,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B16" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
         <v>148</v>
-      </c>
-      <c r="C16" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -2262,7 +2271,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <f>1.64^2 * (A18 / (0.05^2))</f>
@@ -2278,11 +2287,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="76.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
@@ -2291,8 +2303,8 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
+      <c r="C1" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2300,10 +2312,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
         <v>150</v>
-      </c>
-      <c r="C2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2311,10 +2323,10 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="B3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" t="s">
         <v>152</v>
-      </c>
-      <c r="C3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2322,10 +2334,10 @@
         <v>0.4</v>
       </c>
       <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2333,10 +2345,10 @@
         <v>0.16</v>
       </c>
       <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
         <v>156</v>
-      </c>
-      <c r="C5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2344,10 +2356,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
         <v>158</v>
-      </c>
-      <c r="C6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2355,10 +2367,10 @@
         <v>0.4</v>
       </c>
       <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" t="s">
         <v>160</v>
-      </c>
-      <c r="C7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2366,10 +2378,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
         <v>162</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,10 +2389,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" t="s">
         <v>164</v>
-      </c>
-      <c r="C9" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,10 +2400,10 @@
         <v>0.2</v>
       </c>
       <c r="B10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" t="s">
         <v>166</v>
-      </c>
-      <c r="C10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2399,10 +2411,10 @@
         <v>0.98000000000000009</v>
       </c>
       <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
         <v>168</v>
-      </c>
-      <c r="C11" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -2410,10 +2422,10 @@
         <v>0.43999999999999989</v>
       </c>
       <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
         <v>170</v>
-      </c>
-      <c r="C12" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -2421,10 +2433,10 @@
         <v>0.86</v>
       </c>
       <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
         <v>172</v>
-      </c>
-      <c r="C13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2432,10 +2444,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="B14" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" t="s">
         <v>174</v>
-      </c>
-      <c r="C14" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2443,10 +2455,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B15" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" t="s">
         <v>148</v>
-      </c>
-      <c r="C15" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2454,10 +2466,10 @@
         <v>0.61999999999999988</v>
       </c>
       <c r="B16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" t="s">
         <v>176</v>
-      </c>
-      <c r="C16" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2465,10 +2477,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" t="s">
         <v>178</v>
-      </c>
-      <c r="C17" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2476,10 +2488,10 @@
         <v>0.57999999999999985</v>
       </c>
       <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18" t="s">
         <v>180</v>
-      </c>
-      <c r="C18" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2487,10 +2499,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" t="s">
         <v>182</v>
-      </c>
-      <c r="C19" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -2498,10 +2510,10 @@
         <v>0.51999999999999991</v>
       </c>
       <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
         <v>184</v>
-      </c>
-      <c r="C20" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2509,10 +2521,10 @@
         <v>0.7</v>
       </c>
       <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" t="s">
         <v>186</v>
-      </c>
-      <c r="C21" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -2520,10 +2532,10 @@
         <v>0.55999999999999994</v>
       </c>
       <c r="B22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" t="s">
         <v>188</v>
-      </c>
-      <c r="C22" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -2531,10 +2543,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" t="s">
         <v>190</v>
-      </c>
-      <c r="C23" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,10 +2554,10 @@
         <v>0.57999999999999985</v>
       </c>
       <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" t="s">
         <v>192</v>
-      </c>
-      <c r="C24" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2553,10 +2565,10 @@
         <v>0.44000000000000011</v>
       </c>
       <c r="B25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C25" t="s">
         <v>194</v>
-      </c>
-      <c r="C25" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2564,10 +2576,10 @@
         <v>0.52</v>
       </c>
       <c r="B26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" t="s">
         <v>196</v>
-      </c>
-      <c r="C26" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2575,10 +2587,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
         <v>198</v>
-      </c>
-      <c r="C27" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2586,10 +2598,10 @@
         <v>0.4</v>
       </c>
       <c r="B28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C28" t="s">
         <v>200</v>
-      </c>
-      <c r="C28" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2597,10 +2609,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B29" t="s">
+        <v>201</v>
+      </c>
+      <c r="C29" t="s">
         <v>202</v>
-      </c>
-      <c r="C29" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -2608,10 +2620,10 @@
         <v>0.36</v>
       </c>
       <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" t="s">
         <v>204</v>
-      </c>
-      <c r="C30" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2619,10 +2631,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" t="s">
         <v>206</v>
-      </c>
-      <c r="C31" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -2630,10 +2642,10 @@
         <v>0.5</v>
       </c>
       <c r="B32" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" t="s">
         <v>208</v>
-      </c>
-      <c r="C32" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -2641,10 +2653,10 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="B33" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" t="s">
         <v>210</v>
-      </c>
-      <c r="C33" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -2652,10 +2664,10 @@
         <v>0.22</v>
       </c>
       <c r="B34" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" t="s">
         <v>212</v>
-      </c>
-      <c r="C34" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -2663,10 +2675,10 @@
         <v>0.55999999999999983</v>
       </c>
       <c r="B35" t="s">
+        <v>213</v>
+      </c>
+      <c r="C35" t="s">
         <v>214</v>
-      </c>
-      <c r="C35" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -2674,10 +2686,10 @@
         <v>0.48000000000000009</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -2685,10 +2697,10 @@
         <v>0.42</v>
       </c>
       <c r="B37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" t="s">
         <v>217</v>
-      </c>
-      <c r="C37" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -2696,10 +2708,10 @@
         <v>0.65999999999999992</v>
       </c>
       <c r="B38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C38" t="s">
         <v>219</v>
-      </c>
-      <c r="C38" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2707,10 +2719,10 @@
         <v>0.52000000000000013</v>
       </c>
       <c r="B39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C39" t="s">
         <v>221</v>
-      </c>
-      <c r="C39" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2718,10 +2730,10 @@
         <v>0.6</v>
       </c>
       <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s">
         <v>223</v>
-      </c>
-      <c r="C40" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2729,10 +2741,10 @@
         <v>0.61999999999999988</v>
       </c>
       <c r="B41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C41" t="s">
         <v>225</v>
-      </c>
-      <c r="C41" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2740,10 +2752,10 @@
         <v>0.74</v>
       </c>
       <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="s">
         <v>227</v>
-      </c>
-      <c r="C42" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2751,10 +2763,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" t="s">
         <v>229</v>
-      </c>
-      <c r="C43" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2762,10 +2774,10 @@
         <v>0.53999999999999992</v>
       </c>
       <c r="B44" t="s">
+        <v>230</v>
+      </c>
+      <c r="C44" t="s">
         <v>231</v>
-      </c>
-      <c r="C44" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2773,10 +2785,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B45" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" t="s">
         <v>233</v>
-      </c>
-      <c r="C45" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2784,10 +2796,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B46" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" t="s">
         <v>235</v>
-      </c>
-      <c r="C46" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2795,10 +2807,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B47" t="s">
+        <v>236</v>
+      </c>
+      <c r="C47" t="s">
         <v>237</v>
-      </c>
-      <c r="C47" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2806,10 +2818,10 @@
         <v>0.2</v>
       </c>
       <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" t="s">
         <v>239</v>
-      </c>
-      <c r="C48" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2817,10 +2829,10 @@
         <v>0.59999999999999987</v>
       </c>
       <c r="B49" t="s">
+        <v>240</v>
+      </c>
+      <c r="C49" t="s">
         <v>241</v>
-      </c>
-      <c r="C49" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2828,10 +2840,10 @@
         <v>0.6399999999999999</v>
       </c>
       <c r="B50" t="s">
+        <v>242</v>
+      </c>
+      <c r="C50" t="s">
         <v>243</v>
-      </c>
-      <c r="C50" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2839,10 +2851,10 @@
         <v>0.44000000000000011</v>
       </c>
       <c r="B51" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" t="s">
         <v>245</v>
-      </c>
-      <c r="C51" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2850,10 +2862,10 @@
         <v>0.67999999999999994</v>
       </c>
       <c r="B52" t="s">
+        <v>246</v>
+      </c>
+      <c r="C52" t="s">
         <v>247</v>
-      </c>
-      <c r="C52" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2861,10 +2873,10 @@
         <v>0.47999999999999993</v>
       </c>
       <c r="B53" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" t="s">
         <v>249</v>
-      </c>
-      <c r="C53" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2872,10 +2884,10 @@
         <v>0.79999999999999993</v>
       </c>
       <c r="B54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C54" t="s">
         <v>251</v>
-      </c>
-      <c r="C54" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2883,15 +2895,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B55" t="s">
+        <v>252</v>
+      </c>
+      <c r="C55" t="s">
         <v>253</v>
-      </c>
-      <c r="C55" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57">
         <f>AVERAGE(A2:A55)</f>
@@ -2900,7 +2912,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B58">
         <f>_xlfn.VAR.S(A2:A55)</f>
@@ -2909,7 +2921,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B59">
         <f>SQRT(B58)</f>
@@ -2918,7 +2930,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60">
         <f>B57-1.64*SQRT(B58/54)</f>

--- a/Experiment_data.xlsx
+++ b/Experiment_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sif_wittus/Documents/GitHub/Januar-Projekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B3C0A9-B26B-184E-98DD-9F6CE30183CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0DF0D-DBF8-6348-A765-42874B3E51F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
